--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -15,7 +15,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>การประเมินประสิทธิผล</t>
+  </si>
+  <si>
+    <t>โครงการtest1่ดกาด่รดำาดสดสดวทแมปทแหแสหมก</t>
+  </si>
+  <si>
+    <t>ปีงบประมาณ พ.ศ.2567</t>
+  </si>
   <si>
     <t>ลำดับ</t>
   </si>
@@ -44,10 +53,64 @@
     <t>รวมวัตถุประสงค์ทั้งหมด</t>
   </si>
   <si>
-    <t>รวมที่บรรลุวัตถุประสงค์</t>
-  </si>
-  <si>
-    <t>รวมที่ไม่บรรลุวัตถุประสงค์</t>
+    <t>รวมวัตถุประสงค์ที่บรรลุ</t>
+  </si>
+  <si>
+    <t>รวมวัตถุประสงค์ที่ไม่บรรลุ</t>
+  </si>
+  <si>
+    <t>ตัวชี้วัดโครงการ</t>
+  </si>
+  <si>
+    <t>หน่วยนับ</t>
+  </si>
+  <si>
+    <t>ค่าเป้าหมาย</t>
+  </si>
+  <si>
+    <t>ผลค่าเป้าหมายที่ได้</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>kpi1</t>
+  </si>
+  <si>
+    <t>ร้อยละ</t>
+  </si>
+  <si>
+    <t>kpi2</t>
+  </si>
+  <si>
+    <t>คะแนนเฉลี่ย</t>
+  </si>
+  <si>
+    <t>รวมตัวชี้วัดทั้งหมด</t>
+  </si>
+  <si>
+    <t>ตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>รวมตัวชี้วัดที่บรรลุ</t>
+  </si>
+  <si>
+    <t>รวมตัวชี้วัดที่ไม่บรรลุ</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>ค่าที่ได้</t>
+  </si>
+  <si>
+    <t>คะแนนวัตถุประสงค์</t>
+  </si>
+  <si>
+    <t>คะแนนตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ประสิทธิผลของโครงการ</t>
   </si>
 </sst>
 </file>
@@ -61,18 +124,18 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="TH Sarabun New"/>
     </font>
     <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH Sarabun New"/>
     </font>
   </fonts>
   <fills count="3">
@@ -84,12 +147,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4CAF50"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,21 +160,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,103 +499,294 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="A17" sqref="A17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="64.841" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="26.904" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.191" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.53" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" customHeight="1" ht="25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customHeight="1" ht="25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customHeight="1" ht="25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customHeight="1" ht="25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customHeight="1" ht="25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customHeight="1" ht="25"/>
+    <row r="9" spans="1:6" customHeight="1" ht="25"/>
+    <row r="10" spans="1:6" customHeight="1" ht="25">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customHeight="1" ht="25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="25">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customHeight="1" ht="25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customHeight="1" ht="25">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="25"/>
+    <row r="17" spans="1:6" customHeight="1" ht="25">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" customHeight="1" ht="25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" customHeight="1" ht="25">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" customHeight="1" ht="25">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -200,6 +200,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,40 +641,40 @@
       </c>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>3.51</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>3.1</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>3.51</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="25">
       <c r="A13" s="3" t="s">

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>การประเมินประสิทธิผล</t>
   </si>
   <si>
-    <t>โครงการtest1่ดกาด่รดำาดสดสดวทแมปทแหแสหมก</t>
+    <t>โครงการtest</t>
   </si>
   <si>
     <t>ปีงบประมาณ พ.ศ.2567</t>
@@ -32,24 +32,18 @@
     <t>วัตถุประสงค์</t>
   </si>
   <si>
-    <t>สถานะ</t>
+    <t>บรรลุ / ไม่บรรลุ</t>
+  </si>
+  <si>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
   <si>
     <t>ข้อ</t>
   </si>
   <si>
-    <t>obj1mcm,cdllddlldlททททททททกหกหกหกหกหกหกหกหกหกหดพดพดพดพ</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>obj2kmdks'lkl;dfdldd;ss;;sกดหกดหกดหกด</t>
-  </si>
-  <si>
-    <t>✗</t>
-  </si>
-  <si>
     <t>รวมวัตถุประสงค์ทั้งหมด</t>
   </si>
   <si>
@@ -65,52 +59,46 @@
     <t>หน่วยนับ</t>
   </si>
   <si>
-    <t>ค่าเป้าหมาย</t>
-  </si>
-  <si>
-    <t>ผลค่าเป้าหมายที่ได้</t>
+    <t>ค่าที่ได้</t>
+  </si>
+  <si>
+    <t>ผลค่าเป้าหมาย</t>
   </si>
   <si>
     <t>รวม</t>
   </si>
   <si>
-    <t>kpi1</t>
+    <t>ตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>คะแนนเฉลี่ย</t>
+  </si>
+  <si>
+    <t>รวมตัวชี้วัดทั้งหมด</t>
+  </si>
+  <si>
+    <t>รวมตัวชี้วัดที่บรรลุ</t>
+  </si>
+  <si>
+    <t>รวมตัวชี้วัดที่ไม่บรรลุ</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>คะแนนวัตถุประสงค์</t>
+  </si>
+  <si>
+    <t>คะแนน</t>
+  </si>
+  <si>
+    <t>คะแนนตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ประสิทธิผลของโครงการ</t>
   </si>
   <si>
     <t>ร้อยละ</t>
-  </si>
-  <si>
-    <t>kpi2</t>
-  </si>
-  <si>
-    <t>คะแนนเฉลี่ย</t>
-  </si>
-  <si>
-    <t>รวมตัวชี้วัดทั้งหมด</t>
-  </si>
-  <si>
-    <t>ตัวชี้วัด</t>
-  </si>
-  <si>
-    <t>รวมตัวชี้วัดที่บรรลุ</t>
-  </si>
-  <si>
-    <t>รวมตัวชี้วัดที่ไม่บรรลุ</t>
-  </si>
-  <si>
-    <t>รายการ</t>
-  </si>
-  <si>
-    <t>ค่าที่ได้</t>
-  </si>
-  <si>
-    <t>คะแนนวัตถุประสงค์</t>
-  </si>
-  <si>
-    <t>คะแนนตัวชี้วัด</t>
-  </si>
-  <si>
-    <t>ประสิทธิผลของโครงการ</t>
   </si>
 </sst>
 </file>
@@ -118,22 +106,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="TH Sarabun New"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="TH Sarabun New"/>
     </font>
@@ -179,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -187,19 +166,16 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -502,17 +478,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17:F20"/>
+      <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.904" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.191" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.53" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="26.932" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.219" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="22.219" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -529,245 +505,256 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customHeight="1" ht="25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" customHeight="1" ht="25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customHeight="1" ht="25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" customHeight="1" ht="25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" customHeight="1" ht="25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" customHeight="1" ht="25">
-      <c r="A7" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" customHeight="1" ht="25"/>
-    <row r="9" spans="1:6" customHeight="1" ht="25"/>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" customHeight="1" ht="25">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customHeight="1" ht="25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" customHeight="1" ht="25">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="25">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8">
-        <v>3.51</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="25">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3.51</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="25">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="25"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="25">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="17" spans="1:6" customHeight="1" ht="25">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
+      <c r="A17" s="4">
+        <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:6" customHeight="1" ht="25">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:6" customHeight="1" ht="25">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" customHeight="1" ht="25">
-      <c r="A20" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -775,21 +762,16 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -172,13 +172,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:F19"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,6 +499,8 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1"/>
+      <c r="D1"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,11 +526,11 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
@@ -579,20 +581,20 @@
       </c>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="25">
       <c r="A9" s="3" t="s">
@@ -618,16 +620,16 @@
       <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>20.0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>20</v>
       </c>
       <c r="F10" s="4">
@@ -677,20 +679,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="25">
       <c r="A16" s="3" t="s">
@@ -712,11 +714,11 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4">
         <v>1</v>
       </c>
@@ -728,11 +730,11 @@
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="4">
         <v>1</v>
       </c>

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -15,90 +15,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>การประเมินประสิทธิผล</t>
-  </si>
-  <si>
-    <t>โครงการtest</t>
-  </si>
-  <si>
-    <t>ปีงบประมาณ พ.ศ.2567</t>
-  </si>
-  <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>วัตถุประสงค์</t>
-  </si>
-  <si>
-    <t>บรรลุ / ไม่บรรลุ</t>
-  </si>
-  <si>
-    <t>หน่วย</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>ข้อ</t>
-  </si>
-  <si>
-    <t>รวมวัตถุประสงค์ทั้งหมด</t>
-  </si>
-  <si>
-    <t>รวมวัตถุประสงค์ที่บรรลุ</t>
-  </si>
-  <si>
-    <t>รวมวัตถุประสงค์ที่ไม่บรรลุ</t>
-  </si>
-  <si>
-    <t>ตัวชี้วัดโครงการ</t>
-  </si>
-  <si>
-    <t>หน่วยนับ</t>
-  </si>
-  <si>
-    <t>ค่าที่ได้</t>
-  </si>
-  <si>
-    <t>ผลค่าเป้าหมาย</t>
-  </si>
-  <si>
-    <t>รวม</t>
-  </si>
-  <si>
-    <t>ตัวชี้วัด</t>
-  </si>
-  <si>
-    <t>คะแนนเฉลี่ย</t>
-  </si>
-  <si>
-    <t>รวมตัวชี้วัดทั้งหมด</t>
-  </si>
-  <si>
-    <t>รวมตัวชี้วัดที่บรรลุ</t>
-  </si>
-  <si>
-    <t>รวมตัวชี้วัดที่ไม่บรรลุ</t>
-  </si>
-  <si>
-    <t>รายการ</t>
-  </si>
-  <si>
-    <t>คะแนนวัตถุประสงค์</t>
-  </si>
-  <si>
-    <t>คะแนน</t>
-  </si>
-  <si>
-    <t>คะแนนตัวชี้วัด</t>
-  </si>
-  <si>
-    <t>ประสิทธิผลของโครงการ</t>
-  </si>
-  <si>
-    <t>ร้อยละ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>แผนปฏิบัติการประจำปีงบประมาณ พ.ศ. 2568</t>
+  </si>
+  <si>
+    <t>สำนักคอมพิวเตอร์และเทคโนโลยีสารสนเทศ</t>
+  </si>
+  <si>
+    <t>ประเด็นยุทธ์ศาสตร์ / เป้าประสงค์</t>
+  </si>
+  <si>
+    <t>กลยุทธ์ (หน่วยงาน)</t>
+  </si>
+  <si>
+    <t>โครงการ / ตัวชี้วัดโครงการ</t>
+  </si>
+  <si>
+    <t>ค่าเป้าหมายโครงการ</t>
+  </si>
+  <si>
+    <t>เงินที่จัดสรร (บาท)</t>
+  </si>
+  <si>
+    <t>ระยะเวลาดำเนินงาน</t>
+  </si>
+  <si>
+    <t>ผู้รับผิดชอบ</t>
+  </si>
+  <si>
+    <t>พ.ศ.2567</t>
+  </si>
+  <si>
+    <t>พ.ศ.2568</t>
+  </si>
+  <si>
+    <t>ต.ค.</t>
+  </si>
+  <si>
+    <t>พ.ย.</t>
+  </si>
+  <si>
+    <t>ธ.ค.</t>
+  </si>
+  <si>
+    <t>ม.ค.</t>
+  </si>
+  <si>
+    <t>ก.พ.</t>
+  </si>
+  <si>
+    <t>มี.ค.</t>
+  </si>
+  <si>
+    <t>เม.ย.</t>
+  </si>
+  <si>
+    <t>พ.ค.</t>
+  </si>
+  <si>
+    <t>มิ.ย.</t>
+  </si>
+  <si>
+    <t>ก.ค.</t>
+  </si>
+  <si>
+    <t>ส.ค.</t>
+  </si>
+  <si>
+    <t>ก.ย.</t>
   </si>
 </sst>
 </file>
@@ -117,21 +102,15 @@
       <name val="TH Sarabun New"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -139,46 +118,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,302 +429,128 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="F5" sqref="F5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="26.932" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.219" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="22.219" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" customHeight="1" ht="25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:18">
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
-    <row r="3" spans="1:6" customHeight="1" ht="25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" customHeight="1" ht="25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" customHeight="1" ht="25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:18">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" customHeight="1" ht="25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" customHeight="1" ht="25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" customHeight="1" ht="25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" customHeight="1" ht="25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" customHeight="1" ht="25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="25">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="25">
-      <c r="A13" s="3" t="s">
+      <c r="P6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="25">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="Q6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customHeight="1" ht="25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="25">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="25">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>100</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:Q5"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>แผนปฏิบัติการประจำปีงบประมาณ พ.ศ. 2568</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>ก.ย.</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 1 ความเป็นเลิศด้านการจัดการศึกษา</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 2 ความเป็นเลิศด้านการวิจัย สร้างสรรค์ประดิษฐกรรมและนวัตกรรม</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 3 ความเป็นเลิศด้านบริการวิชาการ</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 4 ความเป็นเลิศด้านการจัดการ</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5:R5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,6 +548,26 @@
       </c>
       <c r="Q6" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>แผนปฏิบัติการประจำปีงบประมาณ พ.ศ. 2568</t>
   </si>
@@ -89,13 +89,52 @@
     <t>ประเด็น: ยุทธศาสตร์ที่ 1 ความเป็นเลิศด้านการจัดการศึกษา</t>
   </si>
   <si>
+    <t>เป้าประสงค์ที่: 1.1 พัฒนาการเรียนการสอน เพื่อให้รายวิชา/หลักสูตร ทันสมัย ได้มาตรฐาน ตอบสนองและตรงตามความ ต้องการของตลาดแรงงาน</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 1.2 พัฒนาคุณภาพบัณฑิต และบุคลากรให้มีคุณภาพ มีสมรรถนะตามมาตรฐาน อาชีพในศตวรรษที่ 21</t>
+  </si>
+  <si>
     <t>ประเด็น: ยุทธศาสตร์ที่ 2 ความเป็นเลิศด้านการวิจัย สร้างสรรค์ประดิษฐกรรมและนวัตกรรม</t>
   </si>
   <si>
+    <t>เป้าประสงค์ที่: 2.1 เป็นมหาวิทยาลัย แห่งความเป็นเลิศด้านการ สร้างสรรค์นวัตกรรม</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 2.2 เป็นมหาวิทยาลัยวิจัย เพื่อความเป็นเลิศด้าน วิชาการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 2.3 เป็นมหาวิทยาลัยวิจัย เพื่อตอบสนองความต้องการ ของภาคอุตสาหกรรม ชุมชน และสังคม</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 2.4 เป็นมหาวิทยาลัย แห่งผู้ประกอบการ</t>
+  </si>
+  <si>
     <t>ประเด็น: ยุทธศาสตร์ที่ 3 ความเป็นเลิศด้านบริการวิชาการ</t>
   </si>
   <si>
+    <t>เป้าประสงค์ที่: 3.1 พึ่งพาตนเองด้วยการ หารายได้จากงานบริการ วิชาการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 3.2 มีระบบนิเวศ (Ecosystem) การบริการ วิชาการที่สอดคล้องกับ ความต้องการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 3.3 เป็นองค์กรที่มี ภาพลักษณ์ (Branding) ที่ได้รับความเชื่อถือ เชื่อมั่น จากหน่วยงานภายนอก มหาวิทยาลัย</t>
+  </si>
+  <si>
     <t>ประเด็น: ยุทธศาสตร์ที่ 4 ความเป็นเลิศด้านการจัดการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 4.1 พัฒนาบุคลากรให้มี คุณลักษณะเฉพาะบุคคล (SMART People)</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 4.2 เป็นมหาวิทยาลัยดิจิทัล (Digital University)</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 4.3 บริหารและจัดการ อย่างมีประสิทธิภาพและ รองรับการเปลี่ยนแปลง ตามหลักธรรมาภิบาลและ หลักปรัชญาเศรษฐกิจ พอเพียง</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่: 4.4 เป็นมหาวิทยาลัยที่มี ระบบนิเวศเพื่อการพัฒนา ที่ยั่งยืน</t>
   </si>
 </sst>
 </file>
@@ -114,12 +153,18 @@
       <name val="TH Sarabun New"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -142,6 +187,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="A19" sqref="A19:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,9 +597,26 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
@@ -566,8 +629,124 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -583,6 +762,23 @@
     <mergeCell ref="R4:R6"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Objectives_Report.xlsx
+++ b/public/Objectives_Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>แผนปฏิบัติการประจำปีงบประมาณ พ.ศ.2567</t>
   </si>
@@ -84,6 +84,304 @@
   </si>
   <si>
     <t>ก.ย.</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 1 ความเป็นเลิศด้านการจัดการศึกษา</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 1.1 พัฒนาการเรียนการสอน เพื่อให้รายวิชา/หลักสูตร ทันสมัย ได้มาตรฐาน ตอบสนองและตรงตามความ ต้องการของตลาดแรงงาน</t>
+  </si>
+  <si>
+    <t>1.1.1 นำเครื่องมือเทคโนโลยีที่ทันสมัยและมีการบูรณาการเทคนิคการสอนแบบต่างๆ มาใช้ในการจัดการเรียนการสอน เพื่อให้เกิดการพัฒนาและยกระดับคุณภาพการศึกษา</t>
+  </si>
+  <si>
+    <t>1.1.2 พัฒนาและปรับปรุงหลักสูตร เพื่อตอบโจทย์ภาครัฐและ เอกชนและเกิดการบูรณาการ การเรียนรู้คู่กับการปฏิบัติ และการทำงานในรูปแบบ ต่างๆ</t>
+  </si>
+  <si>
+    <t>1.1.3 เพิ่มจำนวนหลักสูตรที่มีการส่งเสริมการใช้ภาษาอังกฤษ จัดโครงการส่งเสริมความเป็นนานาชาติของนักศึกษาและทักษะด้านอื่นๆ ให้สอดคล้องกับบริบทความเป็นสากล</t>
+  </si>
+  <si>
+    <t>1.1.4 พัฒนาหลักสูตรทั้งแบบปริญญา (Degree) และประกาศนียบัตร (Non- Degree) ที่ตอบสนองต่อยุทธศาสตร์ชาติด้านการพัฒนาและเสริมสร้างศักยภาพทรัพยากรมนุษย์</t>
+  </si>
+  <si>
+    <t>1.1.5 ส่งเสริมให้มีการจัดการเรียนการสอนที่มีประสิทธิภาพ และมีสิ่งสนับสนุนการเรียนการสอนที่ทันสมัยและเพียงพอ</t>
+  </si>
+  <si>
+    <t>1.1.6 ส่งเสริมให้หลักสูตรได้รับการรับรองมาตรฐานจากหน่วยงาน/องค์กรที่มีชื่อเสียงในระดับชาติและระดับนานาชาติ</t>
+  </si>
+  <si>
+    <t>1.1.7 ส่งเสริมให้ มจพ.วิทยาเขตปราจีนบุรี และมจพ.วิทยาเขตระยอง มีหลักสูตรที่มุ่งเน้นเพื่อการพัฒนาร่วมกับชุมชน ภาครัฐ และภาคเอกชนในพื้นที</t>
+  </si>
+  <si>
+    <t>1.1.8 พัฒนาหลักสูตรที่มีการบูรณาการระหว่างสาขาวิชาต่างๆ โดยมีความร่วมมือระหว่างชุมชน ภาครัฐ ภาคเอกชน ทั้งในประเทศและ/หรือต่างประเทศ</t>
+  </si>
+  <si>
+    <t>test2
+- kpi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- ร้อยละ 20.00</t>
+  </si>
+  <si>
+    <t>8,000.00</t>
+  </si>
+  <si>
+    <t>น.ส.ทัศน์วรรณ สนองผัน</t>
+  </si>
+  <si>
+    <t>1.1.9 พัฒนาระบบธนาคารหน่วยกิต (Credit Bank) เพื่อการเทียบโอนทั้งรายวิชาและประสบการณ์</t>
+  </si>
+  <si>
+    <t>1.1.10 ส่งเสริมให้ทุกส่วนงานทำกิจกรรมกับหน่วยงานในต่างประเทศ ภายใต้ข้อตกลงความร่วมมือทางวิชาการ</t>
+  </si>
+  <si>
+    <t>1.1.11 ส่งเสริมการจัดทำฐานข้อมูลนักศึกษา/บัณฑิต/ศิษย์เก่า และสร้างกลไกในการนำข้อมูลป้อนกลับจากนักศึกษา/บัณฑิต/ศิษย์เก่า มาพัฒนาการจัดการเรียน การสอน รวมถึงเป็นข้อมูลในการจัดทำแผนพัฒนามหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>1.1.12 ส่งเสริมให้ระบบนิเวศในการจัดการศึกษาในหลักสูตรภาษาอังกฤษ และหลักสูตรนานาชาติ มีความเหมาะสมและเอื้ออำนวยต่อการแลกเปลี่ยนนักศึกษาต่างชาติ</t>
+  </si>
+  <si>
+    <t>1.1.13 ส่งเสริมให้หลักสูตรมีการบูรณาการศาสตร์ระหว่างสาขา โดยมีการจัดการศึกษาร่วมกันระหว่างสาขา/ภาควิชา ระหว่างคณะ และระหว่างมหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>1.1.14 ส่งเสริมและสร้างแรงจูงใจให้อาจารย์เข้ามามีส่วนร่วมในการผลิตสื่อการเรียนการสอนออนไลน์และสื่ออิเล็กทรอนิกส์</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 1.2 พัฒนาคุณภาพบัณฑิต และบุคลากรให้มีคุณภาพ มีสมรรถนะตามมาตรฐาน อาชีพในศตวรรษที่ 21</t>
+  </si>
+  <si>
+    <t>1.2.1 พัฒนาและปรับปรุงหลักสูตร เพื่อตอบโจทย์ภาครัฐและเอกชน และเกิดการบูรณาการการเรียนรู้คู่กับการปฏิบัติและการทำงาน ในรูปแบบต่าง ๆ</t>
+  </si>
+  <si>
+    <t>1.2.2 เพิ่มจำนวนหลักสูตรที่มีการส่งเสริมการใช้ภาษาอังกฤษ จัดโครงการส่งเสริมความเป็นนานาชาติของนักศึกษาและทักษะด้านอื่น ๆ ให้สอดคล้องกับบริบทความเป็นสากล</t>
+  </si>
+  <si>
+    <t>1.2.3 ส่งเสริมการแลกเปลี่ยนนักศึกษา และคณาจารย์ กับมหาวิทยาลัยที่มีชื่อเสียงในระดับชาติและระดับนานาชาติ</t>
+  </si>
+  <si>
+    <t>1.2.4 พัฒนาอาจารย์และบุคลากร ให้มีศักยภาพด้านการศึกษา และกิจกรรมนักศึกษา โดยให้ มีทักษะในศตวรรษที่ 21 (21st Century Skills) ความเป็นผู้ประกอบการ (Entrepreneurship) ความเป็นสากล (Internationalization) การบริหารการศึกษาและ การพัฒนาคุณภาพการศึกษา</t>
+  </si>
+  <si>
+    <t>1.2.5 ส่งเสริมให้ผู้เรียนเป็น ผู้ประกอบการด้านเทคโนโลยี (Technopreneurship) ผู้สร้างสรรค์นวัตกรรม มีทักษะชีวิต (Soft Skills) ทักษะในศตวรรษที่ 21 (21st Century Skills)</t>
+  </si>
+  <si>
+    <t>1.2.6 พัฒนาศักยภาพหน่วยงาน ให้ทำหน้าที่ส่งเสริม สนับสนุน ให้คำแนะนำในการจัดการ เรียนการสอนที่มุ่งเน้นผลลัพธ์ การศึกษา (Outcome Based Education) และมี ทักษะที่ต้องการในศตวรรษ ที่ 21</t>
+  </si>
+  <si>
+    <t>1.2.7 ส่งเสริมบุคคลในทุกช่วงวัย ให้มีความรู้ ทักษะ และ ประสบการณ์ ให้สอดคล้อง กับความต้องการที่ เปลี่ยนแปลง</t>
+  </si>
+  <si>
+    <t>1.2.8 ส่งเสริมการจัดทำฐานข้อมูล นักศึกษา/บัณฑิต/ศิษย์เก่า และสร้างกลไกในการนำ ข้อมูลป้อนกลับจากนักศึกษา/ บัณฑิต/ศิษย์เก่า มาพัฒนา การจัดการเรียนการสอน รวมถึงเป็นข้อมูลในการจัดทำแผนพัฒนา มหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>1.2.9 ส่งเสริมให้ระบบนิเวศในการ จัดการศึกษาในหลักสูตร ภาษาอังกฤษ และหลักสูตร นานาชาติ มีความเหมาะสม และเอื้ออำนวยต่อการ แลกเปลี่ยนนักศึกษาต่างชาติ</t>
+  </si>
+  <si>
+    <t>test3
+- kpi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- คะแนนเฉลี่ย 20.00</t>
+  </si>
+  <si>
+    <t>1.2.10 ส่งเสริมให้ศิษย์เก่าเข้ามา มีส่วนร่วมเพื่อเป็นกลไก ในการพัฒนาศักยภาพของ นักศึกษา โดยเฉพาะอย่างยิ่ง ด้านความเป็นผู้ประกอบการ</t>
+  </si>
+  <si>
+    <t>1.2.11 ส่งเสริมให้บุคลากรเข้าร่วม การแลกเปลี่ยนความรู้กับ ภาคธุรกิจ/ภาคอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>test1
+- kpi1</t>
+  </si>
+  <si>
+    <t>test5
+- kpi1</t>
+  </si>
+  <si>
+    <t>1.2.12 ส่งเสริมให้นักศึกษามี กิจกรรม การเรียนการสอน ทั้งในห้องเรียนและนอก ห้องเรียนที่มีการนำเอา ทักษะการใช้ภาษาอังกฤษ มาใช้</t>
+  </si>
+  <si>
+    <t>1.2.13 ส่งเสริมให้นำเทคโนโลยี สารสนเทศและดิจิทัล มาใช้ ในการจัดการเรียนการสอน รวมถึงการอบรมการใช้ โปรแกรมและนำเอา ซอฟแวร์ลิขสิทธิ์ที่ทันสมัย มาใช้ในการเรียนการสอน</t>
+  </si>
+  <si>
+    <t>test4
+- kpi1</t>
+  </si>
+  <si>
+    <t>1.2.14 สนับสนุนทุนการศึกษาและ ทุนวิจัยให้กับนักศึกษาระดับ บัณฑิตศึกษา จากทั้งทุน ภายในและภายนอก มหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>1.2.15 ส่งเสริมเชิงรุกให้นักศึกษา เข้าร่วมการแข่งขันทาง วิชาการ ทั้งในเวทีระดับชาติ และระดับนานาชาติ</t>
+  </si>
+  <si>
+    <t>1.2.16 ส่งเสริมการประชาสัมพันธ์ เชิงรุกเกี่ยวกับหลักสูตรและ ทุนการศึกษาในระดับ บัณฑิตศึกษา</t>
+  </si>
+  <si>
+    <t>1.2.17 ประสานกับแหล่งทุนกู้ยืม เพื่อการศึกษาที่มีดอกเบี้ยต่ำ ให้กับนักศึกษาระดับ บัณฑิตศึกษา</t>
+  </si>
+  <si>
+    <t>1.2.18 ดำเนินการเชิงรุกในการ เพิ่มจำนวนนักศึกษาต่างชาติ ทั้งในระดับปริญญาตรีและ ระดับบัณฑิตศึกษา</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 2 ความเป็นเลิศด้านการวิจัย สร้างสรรค์ประดิษฐกรรมและนวัตกรรม</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 2.1 เป็นมหาวิทยาลัย แห่งความเป็นเลิศด้านการ สร้างสรรค์นวัตกรรม</t>
+  </si>
+  <si>
+    <t>2.1.1 ส่งเสริมการสร้างผลงานวิจัยแบบก้าวกระโดด</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 2.2 เป็นมหาวิทยาลัยวิจัย เพื่อความเป็นเลิศด้าน วิชาการ</t>
+  </si>
+  <si>
+    <t>2.2.1 พัฒนาศักยภาพงานวิจัยให้ได้รับการตีพิมพ์ในฐานข้อมูล Scopus</t>
+  </si>
+  <si>
+    <t>2.2.2 พัฒนาระบบและกลไกและจัดกิจกรรมเพื่อส่งเสริมการตีพิมพ์ผลงานในฐานข้อมูล Scopus</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 2.3 เป็นมหาวิทยาลัยวิจัย เพื่อตอบสนองความต้องการ ของภาคอุตสาหกรรม ชุมชน และสังคม</t>
+  </si>
+  <si>
+    <t>2.3.1 พัฒนาและถ่ายทอดเทคโนโลยีและนวัตกรรม เพื่อเพิ่มขีดความสามารถในการแข่งขันให้กับภาคอุตสาหกรรมในประเทศไทย</t>
+  </si>
+  <si>
+    <t>2.3.2 พัฒนาระบบนิเวศสำหรับการวิจัยพัฒนาเทคโนโลยีและสร้างนวัตกรรม</t>
+  </si>
+  <si>
+    <t>2.3.3 พัฒนาระบบ กลไก และจัดกิจกรรมเพื่อสร้างความเชื่อมโยงระหว่างมหาวิทยาลัยกับภาคอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 2.4 เป็นมหาวิทยาลัย แห่งผู้ประกอบการ</t>
+  </si>
+  <si>
+    <t>2.4.1 พัฒนาบุคลากรเพื่อสนับสนุนความเป็นผู้ประกอบการ</t>
+  </si>
+  <si>
+    <t>2.4.2 พัฒนาระบบนิเวศน์ด้านเทคโนโลยีและนวัตกรรม เพื่อส่งเสริมการสร้างผู้ประกอบการและบริษัทที่เกิดจากการบ่มเพาะผู้ประกอบการ</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 3 ความเป็นเลิศด้านบริการวิชาการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 3.1 พึ่งพาตนเองด้วยการ หารายได้จากงานบริการ วิชาการ</t>
+  </si>
+  <si>
+    <t>3.1.1 ส่งเสริมให้มีระบบฐานข้อมูล ความเชี่ยวชาญของบุคลากร และความพร้อมด้านเครื่องมือ อุปกรณ์ สถานที่ สำหรับงานบริการวิชาการ</t>
+  </si>
+  <si>
+    <t>3.1.2 พัฒนาระบบการบริหารจัดการงานบริการวิชาการเพื่อเพิ่มประสิทธิภาพในการให้บริการวิชาการที่ยั่งยืนของมหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>3.1.3 ส่งเสริมให้มีหลักสูตรฝึกอบรมที่ตรงตามความต้องการของภาคอุตสาหกรรม(Customized industrial- based training module) สำหรับแต่ละอุตสาหกรรม เป้าหมาย เพื่อเทียบโอนหน่วยกิตไปยังหลักสูตรการเรียนการสอนได้</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 3.2 มีระบบนิเวศ (Ecosystem) การบริการ วิชาการที่สอดคล้องกับ ความต้องการ</t>
+  </si>
+  <si>
+    <t>3.2.1 ส่งเสริมให้มีระบบนิเวศ(Ecosystem)ในด้านการบริการวิชาการ</t>
+  </si>
+  <si>
+    <t>3.2.2 ส่งเสริมการพัฒนาศักยภาพของบุคลากรเพื่อรองรับงานบริการวิชาการอย่างยั่งยืน</t>
+  </si>
+  <si>
+    <t>3.2.3 พัฒนาระบบสนับสนุนงานบริการวิชาการที่เอื้อต่อการแข่งขันและเพิ่มประสิทธิภาพการดำเนินงานบริการวิชาการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 3.3 เป็นองค์กรที่มี ภาพลักษณ์ (Branding) ที่ได้รับความเชื่อถือ เชื่อมั่น จากหน่วยงานภายนอก มหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>3.3.1 สร้างความร่วมมือกับ หน่วยงานภายในและ ภายนอก</t>
+  </si>
+  <si>
+    <t>3.3.2 สร้างแบรนด์ทางการตลาด (Marketing Brand) และภาพลักษณ์องค์กร (Corporate Image) สำหรับใช้เพื่อประชาสัมพันธ์งานบริการวิชาการ</t>
+  </si>
+  <si>
+    <t>3.3.3 ส่งเสริมให้มีการบูรณาการ การบริการวิชาการกับการเรียนการสอนเพื่อให้ผู้เรียนมีประสบการณ์ในการเรียนรู้และทราบถึงงานบริการวิชาการของมหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>3.3.4 ส่งเสริมให้มีผู้เชี่ยวชาญภายนอกในสาขาต่างๆ เข้าร่วมดำเนินงานกับส่วนงานบริการวิชาการ เพื่อให้งานบริการวิชาการของส่วนงานเป็นที่รู้จักของหน่วยงานภายนอก</t>
+  </si>
+  <si>
+    <t>ประเด็น: ยุทธศาสตร์ที่ 4 ความเป็นเลิศด้านการจัดการ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 4.1 พัฒนาบุคลากรให้มี คุณลักษณะเฉพาะบุคคล (SMART People)</t>
+  </si>
+  <si>
+    <t>4.1.1 ส่งเสริมบุคลากรให้มีคุณธรรม จริยธรรม จิตอาสาและจิตสำนึกการรักองค์กร</t>
+  </si>
+  <si>
+    <t>4.1.2 ส่งเสริมให้บุคลากรได้รับการพัฒนาตนเองตามมาตรฐานอาชีพและการเรียนรู้ตลอดชีวิต</t>
+  </si>
+  <si>
+    <t>4.1.3 ส่งเสริมให้บุคลากรได้รับการพัฒนาและใช้ภาษาต่างประเทศในการสื่อสารอย่างมีประสิทธิภาพ</t>
+  </si>
+  <si>
+    <t>4.1.4 พัฒนากลไกการส่งเสริมทักษะดิจิทัลให้กับบุคลากรแบบยั่งยืน</t>
+  </si>
+  <si>
+    <t>4.1.5 การจัดทำแผนพัฒนาบุคลากรรายบุคคลพร้อมกำหนดค่าความสำเร็จตามระบบ Objective and Key Results (OKR)</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 4.2 เป็นมหาวิทยาลัยดิจิทัล (Digital University)</t>
+  </si>
+  <si>
+    <t>4.2.1 พัฒนาและปรับปรุงเทคโนโลยีดิจิทัลและนวัตกรรมบริการเพื่อนักศึกษาและบุคลากร</t>
+  </si>
+  <si>
+    <t>4.2.2 ปรับปรุงและพัฒนาระบบเครือข่ายสื่อสารเพื่อสนับสนุนพันธกิจของมหาวิทยาลัยอย่างยั่งยืน</t>
+  </si>
+  <si>
+    <t>4.2.3 พัฒนาระบบงานบริการ โดยใช้เทคโนโลยีดิจิทัลเพื่อสนับสนุนพันธกิจของมหาวิทยาลัยอย่างยั่งยืน</t>
+  </si>
+  <si>
+    <t>4.2.4 ส่งเสริมและผลักดันให้เกิดการใช้เทคโนโลยีดิจิทัลและนวัตกรรมดิจิทัลในการปฏิบัติงานอย่างเป็นระบบ</t>
+  </si>
+  <si>
+    <t>4.2.5 ปรับปรุงและพัฒนาระบบสารสนเทศและศูนย์กลางข้อมูล (Big Data Center) ที่รองรับการบริหารจัดการเพื่อประกอบการตัดสินใจ</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 4.3 บริหารและจัดการ อย่างมีประสิทธิภาพและ รองรับการเปลี่ยนแปลง ตามหลักธรรมาภิบาลและ หลักปรัชญาเศรษฐกิจ พอเพียง</t>
+  </si>
+  <si>
+    <t>4.3.1 ส่งเสริมให้บุคลากรและนักศึกษารักองค์กรมีคุณธรรม จริยธรรม จิตอาสา และมีจิตสำนึกที่ดีในการปฏิบัติงานหรือการศึกษา</t>
+  </si>
+  <si>
+    <t>4.3.2 ส่งเสริมและประชาสัมพันธ์ให้บุคลากรมีความรู้ ความเข้าใจนโยบาย ระเบียบ และข้อบังคับของมหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>4.3.3 สร้างกลไกในการบริหารจัดการเพื่อเพิ่มประสิทธิภาพในการปฏิบัติงานอย่างยั่งยืน</t>
+  </si>
+  <si>
+    <t>4.3.4 ส่งเสริมการประชาสัมพันธ์ภาพลักษณ์องค์กรและพันธกิจของมหาวิทยาลัยเชิงรุก</t>
+  </si>
+  <si>
+    <t>4.3.5 พัฒนาและปรับปรุงระเบียบและข้อบังคับที่เกี่ยวข้องกับพันธกิจของมหาวิทยาลัยให้มีความทันสมัยและทันต่อการเปลี่ยนแปลง</t>
+  </si>
+  <si>
+    <t>4.3.6 ส่งเสริมการสร้างเสถียรภาพทางการเงินและบริหารสินทรัพย์ของมหาวิทยาลัยให้มีความมั่นคง มั่งคั่ง และยั่งยืน</t>
+  </si>
+  <si>
+    <t>4.3.7 พัฒนาระบบการทำงานตามมาตรฐาน Education Criteria for Performance Excellence (EdPex)</t>
+  </si>
+  <si>
+    <t>เป้าประสงค์ที่ 4.4 เป็นมหาวิทยาลัยที่มี ระบบนิเวศเพื่อการพัฒนา ที่ยั่งยืน</t>
+  </si>
+  <si>
+    <t>4.4.1 สร้างต้นแบบการบริหารจัดการสภาพแวดล้อมที่ดีภายในมหาวิทยาลัย</t>
+  </si>
+  <si>
+    <t>4.4.2 ส่งเสริมให้มีการนำเป้าหมายการพัฒนาที่ยั่งยืน (SDGs) หรือหลักปรัชญาเศรษฐกิจพอเพียงมาใช้</t>
+  </si>
+  <si>
+    <t>4.4.3 ปรับปรุงสภาพทางกายภาพและสภาพแวดล้อมของมหาวิทยาลัยให้มีวัฒนธรรมสีเขียวเป็นมิตรต่อสิ่งแวดล้อม</t>
+  </si>
+  <si>
+    <t>4.4.4 สนับสนุนให้หน่วยงานได้รับการรับรองมาตรฐานสำนักงานสีเขียว (Green office) หรืออาคารเขียว (Green Building)</t>
   </si>
 </sst>
 </file>
@@ -102,12 +400,24 @@
       <name val="TH Sarabun New"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,14 +432,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +744,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="A74" sqref="A74:R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,25 +763,25 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -536,6 +851,591 @@
       </c>
       <c r="Q6" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="R37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="R40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="B99" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -551,6 +1451,23 @@
     <mergeCell ref="R4:R6"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A50:R50"/>
+    <mergeCell ref="A53:R53"/>
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="A60:R60"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="A65:R65"/>
+    <mergeCell ref="A69:R69"/>
+    <mergeCell ref="A74:R74"/>
+    <mergeCell ref="A75:R75"/>
+    <mergeCell ref="A81:R81"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="A95:R95"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
